--- a/tests/data/desired/sqlreport.xlsx
+++ b/tests/data/desired/sqlreport.xlsx
@@ -14,6 +14,12 @@
     <sheet name="Append Sheet" r:id="rId6" sheetId="4"/>
     <sheet name="Overwrite Sheet" r:id="rId7" sheetId="5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Sheet2!$D$5:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">'Append Sheet'!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">'Overwrite Sheet'!$A$1:$D$3</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
@@ -58,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -79,13 +85,43 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,10 +156,21 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+  <cellXfs count="3">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0" applyFill="true">
+      <protection/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true">
+      <protection/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true">
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -148,7 +195,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="5" max="1025" bestFit="true" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" hidden="false" style="0" width="8.46484375" collapsed="true" customWidth="true"/>
+    <col min="3" max="3" bestFit="true" hidden="false" style="0" width="15.16796875" collapsed="true" customWidth="true"/>
+    <col min="1" max="1" bestFit="true" hidden="false" style="0" width="6.73828125" collapsed="true" customWidth="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.48046875" collapsed="true" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -160,16 +211,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="1">
         <v>5</v>
       </c>
     </row>
@@ -202,6 +253,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
@@ -224,20 +276,25 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="8" max="1025" bestFit="true" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" hidden="false" style="0" width="8.46484375" collapsed="true" customWidth="true"/>
+    <col min="6" max="6" bestFit="true" hidden="false" style="0" width="15.015625" collapsed="true" customWidth="true"/>
+    <col min="5" max="5" bestFit="true" hidden="false" style="0" width="15.48046875" collapsed="true" customWidth="true"/>
+    <col min="1" max="3" bestFit="true" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="6.73828125" collapsed="true" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="5">
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="1">
         <v>5</v>
       </c>
     </row>
@@ -270,6 +327,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D5:G7"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -312,18 +370,24 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.73828125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.48046875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.015625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.46484375"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="1">
         <v>5</v>
       </c>
     </row>
@@ -384,6 +448,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D5"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -395,18 +460,24 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.73828125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.48046875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.015625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.46484375"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="2">
         <v>5</v>
       </c>
     </row>
@@ -439,6 +510,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D3"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/sqlreport.xlsx
+++ b/tests/data/desired/sqlreport.xlsx
@@ -13,19 +13,21 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Append Sheet" r:id="rId6" sheetId="4"/>
     <sheet name="Overwrite Sheet" r:id="rId7" sheetId="5"/>
+    <sheet name="Connection Params" r:id="rId8" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Sheet2!$D$5:$G$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">'Append Sheet'!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">'Overwrite Sheet'!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">'Connection Params'!$A$1:$B$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>2010-10-31</t>
   </si>
@@ -55,6 +57,21 @@
   </si>
   <si>
     <t>Abone</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Duck Donald</t>
   </si>
 </sst>
 </file>
@@ -162,15 +179,9 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0" applyFill="true">
-      <protection/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true">
-      <protection/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true">
-      <protection/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0" applyFill="true"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -195,11 +206,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="5" max="1025" bestFit="true" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" hidden="false" style="0" width="8.46484375" collapsed="true" customWidth="true"/>
-    <col min="3" max="3" bestFit="true" hidden="false" style="0" width="15.16796875" collapsed="true" customWidth="true"/>
-    <col min="1" max="1" bestFit="true" hidden="false" style="0" width="6.73828125" collapsed="true" customWidth="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="15.48046875" collapsed="true" bestFit="true" customWidth="true"/>
+    <col min="5" max="1025" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="8.46484375" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="15.16796875" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="6.73828125" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.48046875" collapsed="true" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -276,12 +287,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="8" max="1025" bestFit="true" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" hidden="false" style="0" width="8.46484375" collapsed="true" customWidth="true"/>
-    <col min="6" max="6" bestFit="true" hidden="false" style="0" width="15.015625" collapsed="true" customWidth="true"/>
-    <col min="5" max="5" bestFit="true" hidden="false" style="0" width="15.48046875" collapsed="true" customWidth="true"/>
-    <col min="1" max="3" bestFit="true" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="6.73828125" collapsed="true" bestFit="true" customWidth="true"/>
+    <col min="8" max="1025" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="8.46484375" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="15.015625" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="15.48046875" collapsed="true" customWidth="true" bestFit="true"/>
+    <col min="1" max="3" hidden="false" style="0" width="11.6235294117647" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="6.73828125" collapsed="true" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="5">
@@ -371,10 +382,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.73828125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.48046875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.015625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.46484375"/>
+    <col min="1" max="1" width="6.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.48046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,10 +472,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.73828125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.48046875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.015625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.46484375"/>
+    <col min="1" max="1" width="6.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.48046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,4 +524,46 @@
   <autoFilter ref="A1:D3"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.1328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/tests/data/desired/sqlreport.xlsx
+++ b/tests/data/desired/sqlreport.xlsx
@@ -118,7 +118,19 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,16 +140,6 @@
     <fill>
       <patternFill>
         <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -178,10 +180,11 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0" applyFill="true"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFill="true"/>
+  <cellXfs count="4">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -214,52 +217,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1">
+      <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="1">
         <v>52.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="1">
         <v>13.0</v>
       </c>
     </row>
@@ -296,44 +299,44 @@
   </cols>
   <sheetData>
     <row r="5">
-      <c r="D5" t="s" s="1">
+      <c r="D5" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="1">
+      <c r="E5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="F5" t="s" s="1">
+      <c r="F5" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="G5" t="s" s="1">
+      <c r="G5" t="s" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="n" s="1">
         <v>52.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="n" s="1">
         <v>13.0</v>
       </c>
     </row>
@@ -389,72 +392,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="n" s="1">
         <v>52.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="1">
         <v>13.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="1">
         <v>52.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="n" s="1">
         <v>13.0</v>
       </c>
     </row>
@@ -479,44 +482,44 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="n" s="0">
         <v>52.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="0">
         <v>13.0</v>
       </c>
     </row>
@@ -539,26 +542,26 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="1">
         <v>14</v>
       </c>
     </row>
